--- a/BBG_Output.xlsx
+++ b/BBG_Output.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="06-02-2024" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="07-02-2024" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="08-02-2024" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -815,4 +816,205 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>E.February</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>E.March</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>E.April</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>E.May</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>E.June</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>E.July</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="G2" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5.53</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Swap Ref</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>79.20399999999999</v>
+      </c>
+      <c r="C7" t="n">
+        <v>79.133</v>
+      </c>
+      <c r="D7" t="n">
+        <v>78.794</v>
+      </c>
+      <c r="E7" t="n">
+        <v>78.434</v>
+      </c>
+      <c r="F7" t="n">
+        <v>78.06</v>
+      </c>
+      <c r="G7" t="n">
+        <v>77.66200000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/BBG_Output.xlsx
+++ b/BBG_Output.xlsx
@@ -871,22 +871,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="C2" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="D2" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="E2" t="n">
-        <v>3.46</v>
+        <v>3.44</v>
       </c>
       <c r="F2" t="n">
-        <v>4.34</v>
+        <v>4.33</v>
       </c>
       <c r="G2" t="n">
-        <v>5.08</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="3">
@@ -896,22 +896,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="C3" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="D3" t="n">
-        <v>2.93</v>
+        <v>2.91</v>
       </c>
       <c r="E3" t="n">
-        <v>3.88</v>
+        <v>3.86</v>
       </c>
       <c r="F3" t="n">
-        <v>4.78</v>
+        <v>4.76</v>
       </c>
       <c r="G3" t="n">
-        <v>5.53</v>
+        <v>5.51</v>
       </c>
     </row>
     <row r="4">
@@ -921,22 +921,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="C4" t="n">
-        <v>2.15</v>
+        <v>2.14</v>
       </c>
       <c r="D4" t="n">
-        <v>3.36</v>
+        <v>3.34</v>
       </c>
       <c r="E4" t="n">
-        <v>4.33</v>
+        <v>4.31</v>
       </c>
       <c r="F4" t="n">
-        <v>5.25</v>
+        <v>5.22</v>
       </c>
       <c r="G4" t="n">
-        <v>6</v>
+        <v>5.98</v>
       </c>
     </row>
     <row r="5">
@@ -986,7 +986,7 @@
         <v>0.84</v>
       </c>
       <c r="G6" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="7">
@@ -996,22 +996,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>79.20399999999999</v>
+        <v>79.22799999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>79.133</v>
+        <v>79.164</v>
       </c>
       <c r="D7" t="n">
-        <v>78.794</v>
+        <v>78.834</v>
       </c>
       <c r="E7" t="n">
-        <v>78.434</v>
+        <v>78.48399999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>78.06</v>
+        <v>78.11</v>
       </c>
       <c r="G7" t="n">
-        <v>77.66200000000001</v>
+        <v>77.71299999999999</v>
       </c>
     </row>
   </sheetData>

--- a/BBG_Output.xlsx
+++ b/BBG_Output.xlsx
@@ -9,6 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="06-02-2024" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="07-02-2024" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="08-02-2024" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="13-02-2024" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="14-02-2024" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -1017,4 +1019,406 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>E.February</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>E.March</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>E.April</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>E.May</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>E.June</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>E.July</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G2" t="n">
+        <v>4.21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4.6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5.02</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Swap Ref</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>81.102</v>
+      </c>
+      <c r="C7" t="n">
+        <v>81.48699999999999</v>
+      </c>
+      <c r="D7" t="n">
+        <v>81.02</v>
+      </c>
+      <c r="E7" t="n">
+        <v>80.581</v>
+      </c>
+      <c r="F7" t="n">
+        <v>80.148</v>
+      </c>
+      <c r="G7" t="n">
+        <v>79.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>E.February</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>E.March</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>E.April</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>E.May</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>E.June</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>E.July</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="G2" t="n">
+        <v>4.09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4.47</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4.88</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Swap Ref</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>81.521</v>
+      </c>
+      <c r="C7" t="n">
+        <v>81.98999999999999</v>
+      </c>
+      <c r="D7" t="n">
+        <v>81.396</v>
+      </c>
+      <c r="E7" t="n">
+        <v>80.878</v>
+      </c>
+      <c r="F7" t="n">
+        <v>80.376</v>
+      </c>
+      <c r="G7" t="n">
+        <v>79.899</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/BBG_Output.xlsx
+++ b/BBG_Output.xlsx
@@ -1281,16 +1281,16 @@
         <v>0.57</v>
       </c>
       <c r="D2" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="E2" t="n">
-        <v>2.48</v>
+        <v>2.47</v>
       </c>
       <c r="F2" t="n">
-        <v>3.36</v>
+        <v>3.34</v>
       </c>
       <c r="G2" t="n">
-        <v>4.09</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="3">
@@ -1303,19 +1303,19 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="D3" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="E3" t="n">
-        <v>2.81</v>
+        <v>2.79</v>
       </c>
       <c r="F3" t="n">
-        <v>3.72</v>
+        <v>3.7</v>
       </c>
       <c r="G3" t="n">
-        <v>4.47</v>
+        <v>4.46</v>
       </c>
     </row>
     <row r="4">
@@ -1328,19 +1328,19 @@
         <v>0.01</v>
       </c>
       <c r="C4" t="n">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="D4" t="n">
-        <v>2.17</v>
+        <v>2.15</v>
       </c>
       <c r="E4" t="n">
-        <v>3.17</v>
+        <v>3.15</v>
       </c>
       <c r="F4" t="n">
-        <v>4.11</v>
+        <v>4.09</v>
       </c>
       <c r="G4" t="n">
-        <v>4.88</v>
+        <v>4.86</v>
       </c>
     </row>
     <row r="5">
@@ -1365,7 +1365,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>0.82</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -1384,10 +1384,10 @@
         <v>0.18</v>
       </c>
       <c r="E6" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="F6" t="n">
-        <v>0.63</v>
+        <v>0.62</v>
       </c>
       <c r="G6" t="n">
         <v>0.91</v>
@@ -1400,22 +1400,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>81.521</v>
+        <v>81.569</v>
       </c>
       <c r="C7" t="n">
-        <v>81.98999999999999</v>
+        <v>82.04000000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>81.396</v>
+        <v>81.456</v>
       </c>
       <c r="E7" t="n">
-        <v>80.878</v>
+        <v>80.938</v>
       </c>
       <c r="F7" t="n">
-        <v>80.376</v>
+        <v>80.435</v>
       </c>
       <c r="G7" t="n">
-        <v>79.899</v>
+        <v>79.93899999999999</v>
       </c>
     </row>
   </sheetData>

--- a/BBG_Output.xlsx
+++ b/BBG_Output.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="08-02-2024" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="13-02-2024" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="14-02-2024" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="19-02-2024" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -1421,4 +1422,205 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>E.February</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>E.March</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>E.April</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>E.May</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>E.June</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>E.July</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3.76</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4.13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4.52</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Swap Ref</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>81.84999999999999</v>
+      </c>
+      <c r="C7" t="n">
+        <v>82.708</v>
+      </c>
+      <c r="D7" t="n">
+        <v>82.083</v>
+      </c>
+      <c r="E7" t="n">
+        <v>81.485</v>
+      </c>
+      <c r="F7" t="n">
+        <v>80.913</v>
+      </c>
+      <c r="G7" t="n">
+        <v>80.378</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/BBG_Output.xlsx
+++ b/BBG_Output.xlsx
@@ -12,6 +12,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="13-02-2024" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="14-02-2024" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="19-02-2024" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20-02-2024" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -1623,4 +1624,205 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>E.February</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>E.March</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>E.April</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>E.May</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>E.June</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>E.July</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3.69</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4.06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Swap Ref</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>81.883</v>
+      </c>
+      <c r="C7" t="n">
+        <v>82.69799999999999</v>
+      </c>
+      <c r="D7" t="n">
+        <v>82.06399999999999</v>
+      </c>
+      <c r="E7" t="n">
+        <v>81.486</v>
+      </c>
+      <c r="F7" t="n">
+        <v>80.934</v>
+      </c>
+      <c r="G7" t="n">
+        <v>80.408</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/BBG_Output.xlsx
+++ b/BBG_Output.xlsx
@@ -13,6 +13,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="14-02-2024" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="19-02-2024" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20-02-2024" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="21-02-2024" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -1825,4 +1826,205 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>E.February</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>E.March</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>E.April</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>E.May</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>E.June</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>E.July</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4.33</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Swap Ref</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>81.541</v>
+      </c>
+      <c r="C7" t="n">
+        <v>81.809</v>
+      </c>
+      <c r="D7" t="n">
+        <v>81.205</v>
+      </c>
+      <c r="E7" t="n">
+        <v>80.64700000000001</v>
+      </c>
+      <c r="F7" t="n">
+        <v>80.114</v>
+      </c>
+      <c r="G7" t="n">
+        <v>79.58799999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/BBG_Output.xlsx
+++ b/BBG_Output.xlsx
@@ -14,6 +14,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="19-02-2024" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20-02-2024" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="21-02-2024" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="22-02-2024" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -2027,4 +2028,205 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>E.February</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>E.March</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>E.April</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>E.May</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>E.June</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>E.July</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3.86</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4.66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Swap Ref</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>81.69</v>
+      </c>
+      <c r="C7" t="n">
+        <v>82.20399999999999</v>
+      </c>
+      <c r="D7" t="n">
+        <v>81.492</v>
+      </c>
+      <c r="E7" t="n">
+        <v>80.873</v>
+      </c>
+      <c r="F7" t="n">
+        <v>80.261</v>
+      </c>
+      <c r="G7" t="n">
+        <v>79.697</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/BBG_Output.xlsx
+++ b/BBG_Output.xlsx
@@ -15,6 +15,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20-02-2024" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="21-02-2024" sheetId="8" state="visible" r:id="rId8"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="22-02-2024" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="23-02-2024" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -623,6 +624,207 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>E.February</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>E.March</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>E.April</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>E.May</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>E.June</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>E.July</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4.13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4.53</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Swap Ref</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>81.73999999999999</v>
+      </c>
+      <c r="C7" t="n">
+        <v>82.395</v>
+      </c>
+      <c r="D7" t="n">
+        <v>81.70099999999999</v>
+      </c>
+      <c r="E7" t="n">
+        <v>81.07299999999999</v>
+      </c>
+      <c r="F7" t="n">
+        <v>80.461</v>
+      </c>
+      <c r="G7" t="n">
+        <v>79.876</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/BBG_Output.xlsx
+++ b/BBG_Output.xlsx
@@ -16,6 +16,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="21-02-2024" sheetId="8" state="visible" r:id="rId8"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="22-02-2024" sheetId="9" state="visible" r:id="rId9"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="23-02-2024" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="27-02-2024" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -825,6 +826,207 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>E.February</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>E.March</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>E.April</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>E.May</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>E.June</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>E.July</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3.84</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4.23</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4.64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Swap Ref</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>81.515</v>
+      </c>
+      <c r="C7" t="n">
+        <v>81.642</v>
+      </c>
+      <c r="D7" t="n">
+        <v>81.075</v>
+      </c>
+      <c r="E7" t="n">
+        <v>80.515</v>
+      </c>
+      <c r="F7" t="n">
+        <v>79.94199999999999</v>
+      </c>
+      <c r="G7" t="n">
+        <v>79.377</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/BBG_Output.xlsx
+++ b/BBG_Output.xlsx
@@ -17,6 +17,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="22-02-2024" sheetId="9" state="visible" r:id="rId9"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="23-02-2024" sheetId="10" state="visible" r:id="rId10"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="27-02-2024" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="28-02-2024" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -1027,6 +1028,207 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>E.February</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>E.March</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>E.April</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>E.May</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>E.June</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>E.July</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3.52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3.89</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4.28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Swap Ref</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>81.669</v>
+      </c>
+      <c r="C7" t="n">
+        <v>82.628</v>
+      </c>
+      <c r="D7" t="n">
+        <v>81.992</v>
+      </c>
+      <c r="E7" t="n">
+        <v>81.373</v>
+      </c>
+      <c r="F7" t="n">
+        <v>80.739</v>
+      </c>
+      <c r="G7" t="n">
+        <v>80.125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/BBG_Output.xlsx
+++ b/BBG_Output.xlsx
@@ -18,6 +18,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="23-02-2024" sheetId="10" state="visible" r:id="rId10"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="27-02-2024" sheetId="11" state="visible" r:id="rId11"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="28-02-2024" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="01-03-2024" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -1229,6 +1230,184 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>E.March</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>E.April</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>E.May</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>E.June</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>E.July</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3.68</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4.06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4.46</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Swap Ref</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>82.203</v>
+      </c>
+      <c r="C7" t="n">
+        <v>81.47</v>
+      </c>
+      <c r="D7" t="n">
+        <v>80.822</v>
+      </c>
+      <c r="E7" t="n">
+        <v>80.169</v>
+      </c>
+      <c r="F7" t="n">
+        <v>79.545</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/BBG_Output.xlsx
+++ b/BBG_Output.xlsx
@@ -1278,19 +1278,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1</v>
+        <v>0.118</v>
       </c>
       <c r="C2" t="n">
-        <v>1.05</v>
+        <v>1.109</v>
       </c>
       <c r="D2" t="n">
-        <v>1.97</v>
+        <v>2.051</v>
       </c>
       <c r="E2" t="n">
-        <v>2.88</v>
+        <v>2.973</v>
       </c>
       <c r="F2" t="n">
-        <v>3.68</v>
+        <v>3.771</v>
       </c>
     </row>
     <row r="3">
@@ -1300,19 +1300,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.17</v>
+        <v>0.193</v>
       </c>
       <c r="C3" t="n">
-        <v>1.28</v>
+        <v>1.352</v>
       </c>
       <c r="D3" t="n">
-        <v>2.27</v>
+        <v>2.364</v>
       </c>
       <c r="E3" t="n">
-        <v>3.23</v>
+        <v>3.331</v>
       </c>
       <c r="F3" t="n">
-        <v>4.06</v>
+        <v>4.159</v>
       </c>
     </row>
     <row r="4">
@@ -1322,19 +1322,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.27</v>
+        <v>0.307</v>
       </c>
       <c r="C4" t="n">
-        <v>1.55</v>
+        <v>1.636</v>
       </c>
       <c r="D4" t="n">
-        <v>2.61</v>
+        <v>2.714</v>
       </c>
       <c r="E4" t="n">
-        <v>3.61</v>
+        <v>3.723</v>
       </c>
       <c r="F4" t="n">
-        <v>4.46</v>
+        <v>4.578</v>
       </c>
     </row>
     <row r="5">
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05</v>
+        <v>0.049</v>
       </c>
       <c r="D5" t="n">
-        <v>0.18</v>
+        <v>0.188</v>
       </c>
       <c r="E5" t="n">
-        <v>0.38</v>
+        <v>0.392</v>
       </c>
       <c r="F5" t="n">
-        <v>0.61</v>
+        <v>0.629</v>
       </c>
     </row>
     <row r="6">
@@ -1369,16 +1369,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06</v>
+        <v>0.062</v>
       </c>
       <c r="D6" t="n">
-        <v>0.21</v>
+        <v>0.215</v>
       </c>
       <c r="E6" t="n">
-        <v>0.43</v>
+        <v>0.446</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.709</v>
       </c>
     </row>
     <row r="7">
@@ -1388,19 +1388,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>82.203</v>
+        <v>81.874</v>
       </c>
       <c r="C7" t="n">
-        <v>81.47</v>
+        <v>81.15000000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>80.822</v>
+        <v>80.502</v>
       </c>
       <c r="E7" t="n">
-        <v>80.169</v>
+        <v>79.849</v>
       </c>
       <c r="F7" t="n">
-        <v>79.545</v>
+        <v>79.235</v>
       </c>
     </row>
   </sheetData>

--- a/BBG_Output.xlsx
+++ b/BBG_Output.xlsx
@@ -19,6 +19,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="27-02-2024" sheetId="11" state="visible" r:id="rId11"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="28-02-2024" sheetId="12" state="visible" r:id="rId12"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="01-03-2024" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="04-03-2024" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -1408,6 +1409,184 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>E.March</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>E.April</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>E.May</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>E.June</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>E.July</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2.563</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3.349</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.959</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.882</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3.704</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.179</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.217</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4.086</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.358</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.572</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.401</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.638</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Swap Ref</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>83.676</v>
+      </c>
+      <c r="C7" t="n">
+        <v>82.79300000000001</v>
+      </c>
+      <c r="D7" t="n">
+        <v>81.986</v>
+      </c>
+      <c r="E7" t="n">
+        <v>81.203</v>
+      </c>
+      <c r="F7" t="n">
+        <v>80.471</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/BBG_Output.xlsx
+++ b/BBG_Output.xlsx
@@ -1916,16 +1916,16 @@
         <v>0.022</v>
       </c>
       <c r="C2" t="n">
-        <v>0.893</v>
+        <v>0.888</v>
       </c>
       <c r="D2" t="n">
-        <v>1.823</v>
+        <v>1.816</v>
       </c>
       <c r="E2" t="n">
-        <v>2.743</v>
+        <v>2.732</v>
       </c>
       <c r="F2" t="n">
-        <v>3.534</v>
+        <v>3.521</v>
       </c>
     </row>
     <row r="3">
@@ -1935,19 +1935,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.048</v>
+        <v>0.047</v>
       </c>
       <c r="C3" t="n">
-        <v>1.113</v>
+        <v>1.106</v>
       </c>
       <c r="D3" t="n">
-        <v>2.123</v>
+        <v>2.115</v>
       </c>
       <c r="E3" t="n">
-        <v>3.092</v>
+        <v>3.08</v>
       </c>
       <c r="F3" t="n">
-        <v>3.914</v>
+        <v>3.901</v>
       </c>
     </row>
     <row r="4">
@@ -1957,19 +1957,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.098</v>
+        <v>0.097</v>
       </c>
       <c r="C4" t="n">
-        <v>1.375</v>
+        <v>1.367</v>
       </c>
       <c r="D4" t="n">
-        <v>2.46</v>
+        <v>2.451</v>
       </c>
       <c r="E4" t="n">
-        <v>3.474</v>
+        <v>3.46</v>
       </c>
       <c r="F4" t="n">
-        <v>4.326</v>
+        <v>4.312</v>
       </c>
     </row>
     <row r="5">
@@ -1988,10 +1988,10 @@
         <v>0.147</v>
       </c>
       <c r="E5" t="n">
-        <v>0.367</v>
+        <v>0.366</v>
       </c>
       <c r="F5" t="n">
-        <v>0.553</v>
+        <v>0.551</v>
       </c>
     </row>
     <row r="6">
@@ -2007,13 +2007,13 @@
         <v>0.032</v>
       </c>
       <c r="D6" t="n">
-        <v>0.173</v>
+        <v>0.172</v>
       </c>
       <c r="E6" t="n">
-        <v>0.412</v>
+        <v>0.411</v>
       </c>
       <c r="F6" t="n">
-        <v>0.624</v>
+        <v>0.622</v>
       </c>
     </row>
     <row r="7">
@@ -2023,19 +2023,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>82.099</v>
+        <v>82.11799999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>81.271</v>
+        <v>81.301</v>
       </c>
       <c r="D7" t="n">
-        <v>80.633</v>
+        <v>80.663</v>
       </c>
       <c r="E7" t="n">
-        <v>79.999</v>
+        <v>80.039</v>
       </c>
       <c r="F7" t="n">
-        <v>79.395</v>
+        <v>79.435</v>
       </c>
     </row>
   </sheetData>

--- a/BBG_Output.xlsx
+++ b/BBG_Output.xlsx
@@ -22,6 +22,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="04-03-2024" sheetId="14" state="visible" r:id="rId14"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="05-03-2024" sheetId="15" state="visible" r:id="rId15"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="06-03-2024" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11-03-2024" sheetId="17" state="visible" r:id="rId17"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -2043,6 +2044,184 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>E.March</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>E.April</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>E.May</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>E.June</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>E.July</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.864</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.816</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3.535</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.089</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.124</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3.097</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3.927</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.361</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.471</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4.35</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.323</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.541</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.159</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.368</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.612</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Swap Ref</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>81.783</v>
+      </c>
+      <c r="C7" t="n">
+        <v>80.884</v>
+      </c>
+      <c r="D7" t="n">
+        <v>80.31399999999999</v>
+      </c>
+      <c r="E7" t="n">
+        <v>79.72</v>
+      </c>
+      <c r="F7" t="n">
+        <v>79.114</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/BBG_Output.xlsx
+++ b/BBG_Output.xlsx
@@ -23,6 +23,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="05-03-2024" sheetId="15" state="visible" r:id="rId15"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="06-03-2024" sheetId="16" state="visible" r:id="rId16"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11-03-2024" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="13-03-2024" sheetId="18" state="visible" r:id="rId18"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -2222,6 +2223,207 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>E.March</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>E.April</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>E.May</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>E.June</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>E.July</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>E.August</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.567</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2.455</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3.209</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3.952</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.788</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3.577</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4.345</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.094</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3.156</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3.978</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4.768</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.114</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.288</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.137</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.544</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.839</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Swap Ref</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>82.155</v>
+      </c>
+      <c r="C7" t="n">
+        <v>81.437</v>
+      </c>
+      <c r="D7" t="n">
+        <v>80.926</v>
+      </c>
+      <c r="E7" t="n">
+        <v>80.361</v>
+      </c>
+      <c r="F7" t="n">
+        <v>79.77500000000001</v>
+      </c>
+      <c r="G7" t="n">
+        <v>79.19499999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/BBG_Output.xlsx
+++ b/BBG_Output.xlsx
@@ -24,6 +24,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="06-03-2024" sheetId="16" state="visible" r:id="rId16"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11-03-2024" sheetId="17" state="visible" r:id="rId17"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="13-03-2024" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="18-03-2024" sheetId="19" state="visible" r:id="rId19"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -2424,6 +2425,207 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>E.March</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>E.April</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>E.May</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>E.June</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>E.July</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>E.August</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.223</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.871</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.609</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2.283</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2.958</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.296</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.038</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.838</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.557</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3.268</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.391</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.232</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.097</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3.604</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.181</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.339</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.543</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.208</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.384</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.611</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Swap Ref</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>84.249</v>
+      </c>
+      <c r="C7" t="n">
+        <v>84.94</v>
+      </c>
+      <c r="D7" t="n">
+        <v>84.282</v>
+      </c>
+      <c r="E7" t="n">
+        <v>83.626</v>
+      </c>
+      <c r="F7" t="n">
+        <v>82.94</v>
+      </c>
+      <c r="G7" t="n">
+        <v>82.251</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/BBG_Output.xlsx
+++ b/BBG_Output.xlsx
@@ -2442,32 +2442,32 @@
     <row r="1">
       <c r="B1" t="inlineStr">
         <is>
-          <t>E.March</t>
+          <t>March Outstanding</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>E.April</t>
+          <t>April Outstanding</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>E.May</t>
+          <t>May Outstanding</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>E.June</t>
+          <t>June Outstanding</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>E.July</t>
+          <t>July Outstanding</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>E.August</t>
+          <t>August Outstanding</t>
         </is>
       </c>
     </row>
@@ -2481,19 +2481,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.223</v>
+        <v>0.235</v>
       </c>
       <c r="D2" t="n">
-        <v>0.871</v>
+        <v>0.897</v>
       </c>
       <c r="E2" t="n">
-        <v>1.609</v>
+        <v>1.644</v>
       </c>
       <c r="F2" t="n">
-        <v>2.283</v>
+        <v>2.321</v>
       </c>
       <c r="G2" t="n">
-        <v>2.958</v>
+        <v>2.997</v>
       </c>
     </row>
     <row r="3">
@@ -2506,19 +2506,19 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.296</v>
+        <v>0.312</v>
       </c>
       <c r="D3" t="n">
-        <v>1.038</v>
+        <v>1.069</v>
       </c>
       <c r="E3" t="n">
-        <v>1.838</v>
+        <v>1.879</v>
       </c>
       <c r="F3" t="n">
-        <v>2.557</v>
+        <v>2.6</v>
       </c>
       <c r="G3" t="n">
-        <v>3.268</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="4">
@@ -2531,19 +2531,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.391</v>
+        <v>0.412</v>
       </c>
       <c r="D4" t="n">
-        <v>1.232</v>
+        <v>1.269</v>
       </c>
       <c r="E4" t="n">
-        <v>2.097</v>
+        <v>2.144</v>
       </c>
       <c r="F4" t="n">
-        <v>2.86</v>
+        <v>2.908</v>
       </c>
       <c r="G4" t="n">
-        <v>3.604</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="5">
@@ -2559,16 +2559,16 @@
         <v>0.003</v>
       </c>
       <c r="D5" t="n">
-        <v>0.061</v>
+        <v>0.062</v>
       </c>
       <c r="E5" t="n">
-        <v>0.181</v>
+        <v>0.184</v>
       </c>
       <c r="F5" t="n">
-        <v>0.339</v>
+        <v>0.344</v>
       </c>
       <c r="G5" t="n">
-        <v>0.543</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="6">
@@ -2584,16 +2584,16 @@
         <v>0.005</v>
       </c>
       <c r="D6" t="n">
-        <v>0.07199999999999999</v>
+        <v>0.073</v>
       </c>
       <c r="E6" t="n">
-        <v>0.208</v>
+        <v>0.212</v>
       </c>
       <c r="F6" t="n">
-        <v>0.384</v>
+        <v>0.39</v>
       </c>
       <c r="G6" t="n">
-        <v>0.611</v>
+        <v>0.618</v>
       </c>
     </row>
     <row r="7">
@@ -2603,22 +2603,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>84.249</v>
+        <v>84.139</v>
       </c>
       <c r="C7" t="n">
-        <v>84.94</v>
+        <v>84.721</v>
       </c>
       <c r="D7" t="n">
-        <v>84.282</v>
+        <v>84.08199999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>83.626</v>
+        <v>83.42700000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>82.94</v>
+        <v>82.761</v>
       </c>
       <c r="G7" t="n">
-        <v>82.251</v>
+        <v>82.092</v>
       </c>
     </row>
   </sheetData>

--- a/BBG_Output.xlsx
+++ b/BBG_Output.xlsx
@@ -2442,32 +2442,32 @@
     <row r="1">
       <c r="B1" t="inlineStr">
         <is>
-          <t>March Outstanding</t>
+          <t>E.March</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>April Outstanding</t>
+          <t>E.April</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>May Outstanding</t>
+          <t>E.May</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>June Outstanding</t>
+          <t>E.June</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>July Outstanding</t>
+          <t>E.July</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>August Outstanding</t>
+          <t>E.August</t>
         </is>
       </c>
     </row>

--- a/BBG_Output.xlsx
+++ b/BBG_Output.xlsx
@@ -25,6 +25,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11-03-2024" sheetId="17" state="visible" r:id="rId17"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="13-03-2024" sheetId="18" state="visible" r:id="rId18"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="18-03-2024" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20-03-2024" sheetId="20" state="visible" r:id="rId20"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -2839,6 +2840,207 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>O.March</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>O.April</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>O.May</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>O.June</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>O.July</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>O.August</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.598</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.264</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.911</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2.568</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.126</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.727</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.154</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2.424</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3.157</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.264</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.439</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.153</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.298</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.494</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Swap Ref</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>84.946</v>
+      </c>
+      <c r="C7" t="n">
+        <v>86.41500000000001</v>
+      </c>
+      <c r="D7" t="n">
+        <v>85.657</v>
+      </c>
+      <c r="E7" t="n">
+        <v>84.90300000000001</v>
+      </c>
+      <c r="F7" t="n">
+        <v>84.157</v>
+      </c>
+      <c r="G7" t="n">
+        <v>83.40900000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/BBG_Output.xlsx
+++ b/BBG_Output.xlsx
@@ -27,6 +27,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="18-03-2024" sheetId="19" state="visible" r:id="rId19"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20-03-2024" sheetId="20" state="visible" r:id="rId20"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="21-03-2024" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="25-03-2024" sheetId="22" state="visible" r:id="rId22"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -3283,6 +3284,207 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>O.March</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>O.April</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>O.May</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>O.June</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>O.July</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>O.August</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.553</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.212</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2.515</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.681</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.413</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.103</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2.809</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.834</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.642</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2.386</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3.131</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.113</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.222</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.401</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.129</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.253</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.447</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Swap Ref</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>84.521</v>
+      </c>
+      <c r="C7" t="n">
+        <v>85.328</v>
+      </c>
+      <c r="D7" t="n">
+        <v>84.619</v>
+      </c>
+      <c r="E7" t="n">
+        <v>83.895</v>
+      </c>
+      <c r="F7" t="n">
+        <v>83.19</v>
+      </c>
+      <c r="G7" t="n">
+        <v>82.48999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/BBG_Output.xlsx
+++ b/BBG_Output.xlsx
@@ -28,6 +28,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20-03-2024" sheetId="20" state="visible" r:id="rId20"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="21-03-2024" sheetId="21" state="visible" r:id="rId21"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="25-03-2024" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="01-04-2024" sheetId="23" state="visible" r:id="rId23"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -3485,6 +3486,184 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>O.April</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>O.May</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>O.June</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>O.July</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>O.August</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.788</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.345</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.978</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.356</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9360000000000001</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.556</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.233</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.447</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.794</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2.514</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.204</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.353</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.121</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.227</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.384</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Swap Ref</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>86.952</v>
+      </c>
+      <c r="C7" t="n">
+        <v>86.11499999999999</v>
+      </c>
+      <c r="D7" t="n">
+        <v>85.31</v>
+      </c>
+      <c r="E7" t="n">
+        <v>84.527</v>
+      </c>
+      <c r="F7" t="n">
+        <v>83.758</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/BBG_Output.xlsx
+++ b/BBG_Output.xlsx
@@ -29,6 +29,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="21-03-2024" sheetId="21" state="visible" r:id="rId21"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="25-03-2024" sheetId="22" state="visible" r:id="rId22"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="01-04-2024" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="29-05-2024" sheetId="24" state="visible" r:id="rId24"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -3664,6 +3665,257 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>O.May</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>O.June</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>O.July</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>O.August</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>O.September</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>O.October</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.553</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.202</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2.482</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.08799999999999999</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.418</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2.784</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.861</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.666</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2.418</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3.116</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2.749</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3.479</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.307</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.322</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2.273</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3.115</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3.874</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.177</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.446</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.486</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Swap Ref</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>83.227</v>
+      </c>
+      <c r="C9" t="n">
+        <v>83.91800000000001</v>
+      </c>
+      <c r="D9" t="n">
+        <v>83.468</v>
+      </c>
+      <c r="E9" t="n">
+        <v>82.955</v>
+      </c>
+      <c r="F9" t="n">
+        <v>82.41500000000001</v>
+      </c>
+      <c r="G9" t="n">
+        <v>81.88800000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/BBG_Output.xlsx
+++ b/BBG_Output.xlsx
@@ -30,6 +30,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="25-03-2024" sheetId="22" state="visible" r:id="rId22"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="01-04-2024" sheetId="23" state="visible" r:id="rId23"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="29-05-2024" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="31-05-2024" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="01-06-2024" sheetId="26" state="visible" r:id="rId26"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -3916,6 +3918,457 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>O.May</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>O.June</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>O.July</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>O.August</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>O.September</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>O.October</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.612</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2.331</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2.987</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.052</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.652</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3.338</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.311</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.301</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.206</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3.007</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3.719</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.474</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.596</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2.563</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3.398</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4.134</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.707</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.945</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2.965</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3.828</v>
+      </c>
+      <c r="G6" t="n">
+        <v>4.583</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.207</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.507</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.079</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.376</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.5580000000000001</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Swap Ref</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>83.008</v>
+      </c>
+      <c r="C9" t="n">
+        <v>81.86499999999999</v>
+      </c>
+      <c r="D9" t="n">
+        <v>81.562</v>
+      </c>
+      <c r="E9" t="n">
+        <v>81.15000000000001</v>
+      </c>
+      <c r="F9" t="n">
+        <v>80.709</v>
+      </c>
+      <c r="G9" t="n">
+        <v>80.27200000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>O.June</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>O.July</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>O.August</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>O.September</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>O.October</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.179</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.807</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2.524</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3.165</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.249</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.109</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.865</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3.532</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.532</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.452</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3.242</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3.93</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.631</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.866</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.838</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3.656</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4.361</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.254</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.269</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4.109</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4.826</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.253</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.403</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.605</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Swap Ref</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>81.098</v>
+      </c>
+      <c r="C8" t="n">
+        <v>80.855</v>
+      </c>
+      <c r="D8" t="n">
+        <v>80.51300000000001</v>
+      </c>
+      <c r="E8" t="n">
+        <v>80.142</v>
+      </c>
+      <c r="F8" t="n">
+        <v>79.77500000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/BBG_Output.xlsx
+++ b/BBG_Output.xlsx
@@ -32,6 +32,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="29-05-2024" sheetId="24" state="visible" r:id="rId24"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="31-05-2024" sheetId="25" state="visible" r:id="rId25"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="01-06-2024" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="01-07-2024" sheetId="27" state="visible" r:id="rId27"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -4369,6 +4370,161 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>O.July</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>O.August</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>O.September</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>O.October</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.673</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.407</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.158</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.853</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.671</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.467</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.131</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.075</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.973</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2.812</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.112</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Swap Ref</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>85.205</v>
+      </c>
+      <c r="C7" t="n">
+        <v>84.399</v>
+      </c>
+      <c r="D7" t="n">
+        <v>83.70999999999999</v>
+      </c>
+      <c r="E7" t="n">
+        <v>83.096</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/BBG_Output.xlsx
+++ b/BBG_Output.xlsx
@@ -33,6 +33,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="31-05-2024" sheetId="25" state="visible" r:id="rId25"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="01-06-2024" sheetId="26" state="visible" r:id="rId26"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="01-07-2024" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="01-08-2024" sheetId="28" state="visible" r:id="rId28"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -4525,6 +4526,138 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>O.August</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>O.September</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>O.October</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.306</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.536</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.488</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.508</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.899</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.802</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.328</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.357</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.177</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.226</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.122</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.082</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Swap Ref</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>81.461</v>
+      </c>
+      <c r="C7" t="n">
+        <v>80.824</v>
+      </c>
+      <c r="D7" t="n">
+        <v>80.291</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
